--- a/storage/file/jawaban.xlsx
+++ b/storage/file/jawaban.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="13395" windowHeight="7755"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="13395" windowHeight="7245"/>
   </bookViews>
   <sheets>
     <sheet name="jawaban" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>updated_at</t>
+  </si>
+  <si>
+    <t>\N</t>
   </si>
 </sst>
 </file>
@@ -913,7 +916,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -927,10 +930,16 @@
       <c r="E2" s="1">
         <v>43130</v>
       </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -944,10 +953,16 @@
       <c r="E3" s="1">
         <v>43130</v>
       </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -961,10 +976,16 @@
       <c r="E4" s="1">
         <v>43130</v>
       </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -978,10 +999,16 @@
       <c r="E5" s="1">
         <v>43130</v>
       </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -995,10 +1022,16 @@
       <c r="E6" s="1">
         <v>43130</v>
       </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1012,10 +1045,16 @@
       <c r="E7" s="1">
         <v>43130</v>
       </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -1029,10 +1068,16 @@
       <c r="E8" s="1">
         <v>43130</v>
       </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1046,10 +1091,16 @@
       <c r="E9" s="1">
         <v>43130</v>
       </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -1063,10 +1114,16 @@
       <c r="E10" s="1">
         <v>43130</v>
       </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1080,10 +1137,16 @@
       <c r="E11" s="1">
         <v>43130</v>
       </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1097,10 +1160,16 @@
       <c r="E12" s="1">
         <v>43130</v>
       </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1114,10 +1183,16 @@
       <c r="E13" s="1">
         <v>43130</v>
       </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1131,10 +1206,16 @@
       <c r="E14" s="1">
         <v>43130</v>
       </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -1148,10 +1229,16 @@
       <c r="E15" s="1">
         <v>43130</v>
       </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>10</v>
@@ -1165,10 +1252,16 @@
       <c r="E16" s="1">
         <v>43130</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -1182,10 +1275,16 @@
       <c r="E17" s="1">
         <v>43130</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -1199,10 +1298,16 @@
       <c r="E18" s="1">
         <v>43130</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -1216,10 +1321,16 @@
       <c r="E19" s="1">
         <v>43130</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -1233,10 +1344,16 @@
       <c r="E20" s="1">
         <v>43130</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -1250,10 +1367,16 @@
       <c r="E21" s="1">
         <v>43130</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -1267,8 +1390,14 @@
       <c r="E22" s="1">
         <v>43130</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1284,10 +1413,16 @@
       <c r="E23" s="1">
         <v>43130</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -1301,10 +1436,16 @@
       <c r="E24" s="1">
         <v>43130</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>10</v>
@@ -1318,10 +1459,16 @@
       <c r="E25" s="1">
         <v>43130</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>10</v>
@@ -1335,10 +1482,16 @@
       <c r="E26" s="1">
         <v>43130</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>10</v>
@@ -1352,10 +1505,16 @@
       <c r="E27" s="1">
         <v>43130</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>10</v>
@@ -1369,10 +1528,16 @@
       <c r="E28" s="1">
         <v>43130</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>10</v>
@@ -1386,10 +1551,16 @@
       <c r="E29" s="1">
         <v>43130</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>10</v>
@@ -1403,10 +1574,16 @@
       <c r="E30" s="1">
         <v>43130</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>10</v>
@@ -1420,10 +1597,16 @@
       <c r="E31" s="1">
         <v>43130</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>10</v>
@@ -1437,10 +1620,16 @@
       <c r="E32" s="1">
         <v>43130</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>10</v>
@@ -1454,10 +1643,16 @@
       <c r="E33" s="1">
         <v>43130</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>10</v>
@@ -1471,10 +1666,16 @@
       <c r="E34" s="1">
         <v>43130</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>10</v>
@@ -1488,10 +1689,16 @@
       <c r="E35" s="1">
         <v>43130</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>10</v>
@@ -1505,10 +1712,16 @@
       <c r="E36" s="1">
         <v>43130</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>10</v>
@@ -1522,10 +1735,16 @@
       <c r="E37" s="1">
         <v>43130</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>10</v>
@@ -1539,10 +1758,16 @@
       <c r="E38" s="1">
         <v>43130</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>10</v>
@@ -1556,10 +1781,16 @@
       <c r="E39" s="1">
         <v>43130</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>10</v>
@@ -1573,10 +1804,16 @@
       <c r="E40" s="1">
         <v>43130</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>10</v>
@@ -1590,10 +1827,16 @@
       <c r="E41" s="1">
         <v>43130</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>10</v>
@@ -1607,10 +1850,16 @@
       <c r="E42" s="1">
         <v>43130</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>10</v>
@@ -1624,10 +1873,16 @@
       <c r="E43" s="1">
         <v>43130</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>10</v>
@@ -1640,6 +1895,12 @@
       </c>
       <c r="E44" s="1">
         <v>43130</v>
+      </c>
+      <c r="F44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
